--- a/09_insulin_overdose/09_insulin_overdose_data.xlsx
+++ b/09_insulin_overdose/09_insulin_overdose_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Insulin Overdose</t>
   </si>
@@ -42,21 +42,6 @@
     <t>Blood Pressure(mmHg)</t>
   </si>
   <si>
-    <t>123/78</t>
-  </si>
-  <si>
-    <t>124/80</t>
-  </si>
-  <si>
-    <t>129/85</t>
-  </si>
-  <si>
-    <t>219/183</t>
-  </si>
-  <si>
-    <t>184/152</t>
-  </si>
-  <si>
     <t>Heart Rate(bpm)</t>
   </si>
   <si>
@@ -66,13 +51,22 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Confused</t>
-  </si>
-  <si>
-    <t>Comatose</t>
-  </si>
-  <si>
     <t>Sympathetic Firing(Hz)</t>
+  </si>
+  <si>
+    <t>124/79</t>
+  </si>
+  <si>
+    <t>231/193</t>
+  </si>
+  <si>
+    <t>213/180</t>
+  </si>
+  <si>
+    <t>Impaired</t>
+  </si>
+  <si>
+    <t>Comatose, Not Breathing</t>
   </si>
 </sst>
 </file>
@@ -172,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -184,6 +178,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,7 +483,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -524,25 +524,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>19.8</v>
+        <v>20.6</v>
       </c>
       <c r="C3" s="4">
-        <v>12.2</v>
+        <v>13.5</v>
       </c>
       <c r="D3" s="4">
-        <v>92.7</v>
+        <v>108.1</v>
       </c>
       <c r="E3" s="4">
-        <v>130.69999999999999</v>
+        <v>152.6</v>
       </c>
       <c r="F3" s="4">
-        <v>145</v>
+        <v>170.8</v>
       </c>
       <c r="G3" s="4">
-        <v>150.69999999999999</v>
+        <v>179.8</v>
       </c>
       <c r="H3" s="4">
-        <v>149.6</v>
+        <v>176.8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60.75" thickBot="1">
@@ -550,25 +550,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D4" s="4">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E4" s="4">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F4" s="4">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G4" s="4">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H4" s="4">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60.75" thickBot="1">
@@ -576,25 +576,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E5" s="4">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75.75" thickBot="1">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>55.1</v>
+        <v>56.2</v>
       </c>
       <c r="C6" s="4">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="D6" s="4">
-        <v>56</v>
+        <v>55.7</v>
       </c>
       <c r="E6" s="4">
-        <v>54.8</v>
+        <v>48.4</v>
       </c>
       <c r="F6" s="4">
-        <v>39.299999999999997</v>
+        <v>30.5</v>
       </c>
       <c r="G6" s="4">
-        <v>29.4</v>
+        <v>21.1</v>
       </c>
       <c r="H6" s="4">
-        <v>16.899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60.75" thickBot="1">
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="4">
         <v>1.5</v>
@@ -640,13 +640,13 @@
         <v>1.2</v>
       </c>
       <c r="F7" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="G7" s="4">
         <v>1.2</v>
       </c>
       <c r="H7" s="4">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60.75" thickBot="1">
@@ -654,30 +654,30 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H8" s="6">
+        <v>40668</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45.75" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>72</v>
@@ -692,44 +692,44 @@
         <v>72</v>
       </c>
       <c r="F9" s="4">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="G9" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H9" s="4">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45.75" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60.75" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>1.5</v>
@@ -744,13 +744,13 @@
         <v>1.5</v>
       </c>
       <c r="F11" s="4">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="G11" s="4">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H11" s="4">
-        <v>4.4000000000000004</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>

--- a/09_insulin_overdose/09_insulin_overdose_data.xlsx
+++ b/09_insulin_overdose/09_insulin_overdose_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="9525"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>Insulin Overdose</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>Comatose, Not Breathing</t>
+  </si>
+  <si>
+    <t>120/97/79</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>HumMod</t>
+  </si>
+  <si>
+    <t>QCP</t>
+  </si>
+  <si>
+    <t>***In HumMod I’m not getting a reaction to the insulin overdose</t>
   </si>
 </sst>
 </file>
@@ -94,12 +109,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -166,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -186,6 +207,11 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,20 +506,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -518,8 +550,32 @@
       <c r="H2" s="2">
         <v>0.28472222222222221</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="45.75" thickBot="1">
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="45.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -544,8 +600,32 @@
       <c r="H3" s="4">
         <v>176.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="60.75" thickBot="1">
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="M3" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="N3" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="O3" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="P3" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="R3" s="4">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="60.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -570,8 +650,32 @@
       <c r="H4" s="4">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="60.75" thickBot="1">
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>68.8</v>
+      </c>
+      <c r="M4" s="4">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="N4" s="4">
+        <v>71.2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>71.2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>71.3</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>71.3</v>
+      </c>
+      <c r="R4" s="4">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="60.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -596,8 +700,32 @@
       <c r="H5" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="75.75" thickBot="1">
+      <c r="K5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="4">
+        <v>100.7</v>
+      </c>
+      <c r="M5" s="4">
+        <v>90.6</v>
+      </c>
+      <c r="N5" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="O5" s="4">
+        <v>90.4</v>
+      </c>
+      <c r="P5" s="4">
+        <v>90.2</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>90.1</v>
+      </c>
+      <c r="R5" s="4">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="75.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -622,8 +750,32 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="60.75" thickBot="1">
+      <c r="K6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="M6" s="4">
+        <v>48.3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>48.3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>48.3</v>
+      </c>
+      <c r="P6" s="4">
+        <v>48.3</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>48.3</v>
+      </c>
+      <c r="R6" s="4">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="60.75" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -648,8 +800,32 @@
       <c r="H7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="60.75" thickBot="1">
+      <c r="K7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="M7" s="7">
+        <v>9.9999999999999998E+66</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="60.75" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -674,8 +850,32 @@
       <c r="H8" s="6">
         <v>40668</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="45.75" thickBot="1">
+      <c r="K8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="45.75" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -700,8 +900,32 @@
       <c r="H9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="45.75" thickBot="1">
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="4">
+        <v>72</v>
+      </c>
+      <c r="M9" s="4">
+        <v>72</v>
+      </c>
+      <c r="N9" s="4">
+        <v>72</v>
+      </c>
+      <c r="O9" s="4">
+        <v>72</v>
+      </c>
+      <c r="P9" s="4">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>72</v>
+      </c>
+      <c r="R9" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="45.75" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -726,8 +950,32 @@
       <c r="H10" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="60.75" thickBot="1">
+      <c r="K10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="60.75" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -752,6 +1000,41 @@
       <c r="H11" s="4">
         <v>8.5</v>
       </c>
+      <c r="K11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
+      <c r="J12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/09_insulin_overdose/09_insulin_overdose_data.xlsx
+++ b/09_insulin_overdose/09_insulin_overdose_data.xlsx
@@ -508,11 +508,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1">
       <c r="A1" t="s">
@@ -807,7 +810,7 @@
         <v>1.91</v>
       </c>
       <c r="M7" s="7">
-        <v>9.9999999999999998E+66</v>
+        <v>1.77</v>
       </c>
       <c r="N7" s="4">
         <v>1.77</v>

--- a/09_insulin_overdose/09_insulin_overdose_data.xlsx
+++ b/09_insulin_overdose/09_insulin_overdose_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t>Insulin Overdose</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Comatose, Not Breathing</t>
   </si>
   <si>
-    <t>120/97/79</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
@@ -82,13 +79,16 @@
   </si>
   <si>
     <t>***In HumMod I’m not getting a reaction to the insulin overdose</t>
+  </si>
+  <si>
+    <t>120/79</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,10 +191,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -212,11 +220,56 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -506,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="P5" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -517,18 +570,18 @@
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -577,8 +630,32 @@
       <c r="R2" s="2">
         <v>0.28472222222222221</v>
       </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0.28472222222222221</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="45.75" thickBot="1">
+    <row r="3" spans="1:27" ht="45.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -627,8 +704,39 @@
       <c r="R3" s="4">
         <v>18.7</v>
       </c>
+      <c r="T3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="10">
+        <f>ABS((B3-L3)/B3)</f>
+        <v>9.7087378640776344E-3</v>
+      </c>
+      <c r="V3" s="10">
+        <f t="shared" ref="V3:AA3" si="0">ABS((C3-M3)/C3)</f>
+        <v>0.39259259259259266</v>
+      </c>
+      <c r="W3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="X3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.87680209698558309</v>
+      </c>
+      <c r="Y3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.88992974238875877</v>
+      </c>
+      <c r="Z3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.89599555061179093</v>
+      </c>
+      <c r="AA3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.89423076923076927</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="60.75" thickBot="1">
+    <row r="4" spans="1:27" ht="60.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -677,8 +785,39 @@
       <c r="R4" s="4">
         <v>71.400000000000006</v>
       </c>
+      <c r="T4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" ref="U4:U11" si="1">ABS((B4-L4)/B4)</f>
+        <v>0.10649350649350653</v>
+      </c>
+      <c r="V4" s="10">
+        <f t="shared" ref="V4:V11" si="2">ABS((C4-M4)/C4)</f>
+        <v>0.21868131868131874</v>
+      </c>
+      <c r="W4" s="10">
+        <f t="shared" ref="W4:W11" si="3">ABS((D4-N4)/D4)</f>
+        <v>9.8734177215189831E-2</v>
+      </c>
+      <c r="X4" s="10">
+        <f t="shared" ref="X4:X11" si="4">ABS((E4-O4)/E4)</f>
+        <v>4.7058823529411806E-2</v>
+      </c>
+      <c r="Y4" s="10">
+        <f t="shared" ref="Y4:Y11" si="5">ABS((F4-P4)/F4)</f>
+        <v>1.857142857142853E-2</v>
+      </c>
+      <c r="Z4" s="10">
+        <f t="shared" ref="Z4:Z11" si="6">ABS((G4-Q4)/G4)</f>
+        <v>0.11975308641975312</v>
+      </c>
+      <c r="AA4" s="10">
+        <f t="shared" ref="AA4:AA11" si="7">ABS((H4-R4)/H4)</f>
+        <v>7.2727272727272654E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="60.75" thickBot="1">
+    <row r="5" spans="1:27" ht="60.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -727,8 +866,39 @@
       <c r="R5" s="4">
         <v>89.9</v>
       </c>
+      <c r="T5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="1"/>
+        <v>5.8878504672897167E-2</v>
+      </c>
+      <c r="V5" s="10">
+        <f t="shared" si="2"/>
+        <v>7.85714285714285E-2</v>
+      </c>
+      <c r="W5" s="10">
+        <f t="shared" si="3"/>
+        <v>0.17532467532467533</v>
+      </c>
+      <c r="X5" s="10">
+        <f t="shared" si="4"/>
+        <v>0.50666666666666671</v>
+      </c>
+      <c r="Y5" s="10">
+        <f t="shared" si="5"/>
+        <v>1.5055555555555555</v>
+      </c>
+      <c r="Z5" s="10">
+        <f t="shared" si="6"/>
+        <v>2.6039999999999996</v>
+      </c>
+      <c r="AA5" s="10">
+        <f t="shared" si="7"/>
+        <v>6.4916666666666671</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="75.75" thickBot="1">
+    <row r="6" spans="1:27" ht="75.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -777,8 +947,36 @@
       <c r="R6" s="4">
         <v>48.3</v>
       </c>
+      <c r="T6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="1"/>
+        <v>0.15124555160142347</v>
+      </c>
+      <c r="V6" s="10">
+        <f t="shared" si="2"/>
+        <v>0.12972972972972979</v>
+      </c>
+      <c r="W6" s="10">
+        <f t="shared" si="3"/>
+        <v>0.13285457809694803</v>
+      </c>
+      <c r="X6" s="10">
+        <f t="shared" si="4"/>
+        <v>2.0661157024793684E-3</v>
+      </c>
+      <c r="Y6" s="10">
+        <f t="shared" si="5"/>
+        <v>0.58360655737704914</v>
+      </c>
+      <c r="Z6" s="10">
+        <f t="shared" si="6"/>
+        <v>1.2890995260663505</v>
+      </c>
+      <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:18" ht="60.75" thickBot="1">
+    <row r="7" spans="1:27" ht="60.75" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -827,8 +1025,36 @@
       <c r="R7" s="4">
         <v>1.76</v>
       </c>
+      <c r="T7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="1"/>
+        <v>0.73636363636363611</v>
+      </c>
+      <c r="V7" s="10">
+        <f t="shared" si="2"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="W7" s="10">
+        <f t="shared" si="3"/>
+        <v>0.2642857142857144</v>
+      </c>
+      <c r="X7" s="10">
+        <f t="shared" si="4"/>
+        <v>0.47500000000000009</v>
+      </c>
+      <c r="Y7" s="10">
+        <f t="shared" si="5"/>
+        <v>0.25714285714285723</v>
+      </c>
+      <c r="Z7" s="10">
+        <f t="shared" si="6"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="AA7" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="60.75" thickBot="1">
+    <row r="8" spans="1:27" ht="60.75" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -857,28 +1083,38 @@
         <v>7</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
     </row>
-    <row r="9" spans="1:18" ht="45.75" thickBot="1">
+    <row r="9" spans="1:27" ht="45.75" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -927,8 +1163,36 @@
       <c r="R9" s="4">
         <v>72</v>
       </c>
+      <c r="T9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10">
+        <f t="shared" si="5"/>
+        <v>0.4375</v>
+      </c>
+      <c r="Z9" s="10">
+        <f t="shared" si="6"/>
+        <v>0.4375</v>
+      </c>
+      <c r="AA9" s="10"/>
     </row>
-    <row r="10" spans="1:18" ht="45.75" thickBot="1">
+    <row r="10" spans="1:27" ht="45.75" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -957,7 +1221,7 @@
         <v>9</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>10</v>
@@ -977,8 +1241,18 @@
       <c r="R10" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="T10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
     </row>
-    <row r="11" spans="1:18" ht="60.75" thickBot="1">
+    <row r="11" spans="1:27" ht="60.75" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1027,10 +1301,41 @@
       <c r="R11" s="4">
         <v>1.5</v>
       </c>
+      <c r="T11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10">
+        <f t="shared" si="5"/>
+        <v>0.6875</v>
+      </c>
+      <c r="Z11" s="10">
+        <f t="shared" si="6"/>
+        <v>0.68085106382978722</v>
+      </c>
+      <c r="AA11" s="10">
+        <f t="shared" si="7"/>
+        <v>0.82352941176470584</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75">
+    <row r="12" spans="1:27" ht="15.75">
       <c r="J12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -1040,6 +1345,15 @@
       <c r="P12" s="9"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U3:AA11">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+      <formula>0.5</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/09_insulin_overdose/09_insulin_overdose_data.xlsx
+++ b/09_insulin_overdose/09_insulin_overdose_data.xlsx
@@ -195,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -220,45 +220,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -561,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
@@ -633,25 +608,25 @@
       <c r="T2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="10">
         <v>0.5</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="10">
         <v>0.25</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="10">
         <v>0.25694444444444448</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="10">
         <v>0.2638888888888889</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="10">
         <v>0.27083333333333331</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="10">
         <v>0.27777777777777779</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="10">
         <v>0.28472222222222221</v>
       </c>
     </row>
@@ -704,34 +679,34 @@
       <c r="R3" s="4">
         <v>18.7</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="11">
         <f>ABS((B3-L3)/B3)</f>
         <v>9.7087378640776344E-3</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="11">
         <f t="shared" ref="V3:AA3" si="0">ABS((C3-M3)/C3)</f>
         <v>0.39259259259259266</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="11">
         <f t="shared" si="0"/>
         <v>0.82608695652173914</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="11">
         <f t="shared" si="0"/>
         <v>0.87680209698558309</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="11">
         <f t="shared" si="0"/>
         <v>0.88992974238875877</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="11">
         <f t="shared" si="0"/>
         <v>0.89599555061179093</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="11">
         <f t="shared" si="0"/>
         <v>0.89423076923076927</v>
       </c>
@@ -785,34 +760,34 @@
       <c r="R4" s="4">
         <v>71.400000000000006</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="11">
         <f t="shared" ref="U4:U11" si="1">ABS((B4-L4)/B4)</f>
         <v>0.10649350649350653</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="11">
         <f t="shared" ref="V4:V11" si="2">ABS((C4-M4)/C4)</f>
         <v>0.21868131868131874</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="11">
         <f t="shared" ref="W4:W11" si="3">ABS((D4-N4)/D4)</f>
         <v>9.8734177215189831E-2</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="11">
         <f t="shared" ref="X4:X11" si="4">ABS((E4-O4)/E4)</f>
         <v>4.7058823529411806E-2</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="11">
         <f t="shared" ref="Y4:Y11" si="5">ABS((F4-P4)/F4)</f>
         <v>1.857142857142853E-2</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="11">
         <f t="shared" ref="Z4:Z11" si="6">ABS((G4-Q4)/G4)</f>
         <v>0.11975308641975312</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="11">
         <f t="shared" ref="AA4:AA11" si="7">ABS((H4-R4)/H4)</f>
         <v>7.2727272727272654E-2</v>
       </c>
@@ -866,34 +841,34 @@
       <c r="R5" s="4">
         <v>89.9</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="11">
         <f t="shared" si="1"/>
         <v>5.8878504672897167E-2</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="11">
         <f t="shared" si="2"/>
         <v>7.85714285714285E-2</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="11">
         <f t="shared" si="3"/>
         <v>0.17532467532467533</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="11">
         <f t="shared" si="4"/>
         <v>0.50666666666666671</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="11">
         <f t="shared" si="5"/>
         <v>1.5055555555555555</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="11">
         <f t="shared" si="6"/>
         <v>2.6039999999999996</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="11">
         <f t="shared" si="7"/>
         <v>6.4916666666666671</v>
       </c>
@@ -947,34 +922,34 @@
       <c r="R6" s="4">
         <v>48.3</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="11">
         <f t="shared" si="1"/>
         <v>0.15124555160142347</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="11">
         <f t="shared" si="2"/>
         <v>0.12972972972972979</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="11">
         <f t="shared" si="3"/>
         <v>0.13285457809694803</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="11">
         <f t="shared" si="4"/>
         <v>2.0661157024793684E-3</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="11">
         <f t="shared" si="5"/>
         <v>0.58360655737704914</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="11">
         <f t="shared" si="6"/>
         <v>1.2890995260663505</v>
       </c>
-      <c r="AA6" s="10"/>
+      <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:27" ht="60.75" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -1025,34 +1000,34 @@
       <c r="R7" s="4">
         <v>1.76</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="11">
         <f t="shared" si="1"/>
         <v>0.73636363636363611</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="11">
         <f t="shared" si="2"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="11">
         <f t="shared" si="3"/>
         <v>0.2642857142857144</v>
       </c>
-      <c r="X7" s="10">
+      <c r="X7" s="11">
         <f t="shared" si="4"/>
         <v>0.47500000000000009</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="11">
         <f t="shared" si="5"/>
         <v>0.25714285714285723</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="11">
         <f t="shared" si="6"/>
         <v>0.56666666666666665</v>
       </c>
-      <c r="AA7" s="10"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="1:27" ht="60.75" thickBot="1">
       <c r="A8" s="3" t="s">
@@ -1103,16 +1078,16 @@
       <c r="R8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" ht="45.75" thickBot="1">
       <c r="A9" s="3" t="s">
@@ -1163,34 +1138,34 @@
       <c r="R9" s="4">
         <v>72</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="11">
         <f t="shared" si="5"/>
         <v>0.4375</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="11">
         <f t="shared" si="6"/>
         <v>0.4375</v>
       </c>
-      <c r="AA9" s="10"/>
+      <c r="AA9" s="11"/>
     </row>
     <row r="10" spans="1:27" ht="45.75" thickBot="1">
       <c r="A10" s="3" t="s">
@@ -1241,16 +1216,16 @@
       <c r="R10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
     </row>
     <row r="11" spans="1:27" ht="60.75" thickBot="1">
       <c r="A11" s="3" t="s">
@@ -1301,34 +1276,34 @@
       <c r="R11" s="4">
         <v>1.5</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V11" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W11" s="10">
+      <c r="W11" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X11" s="10">
+      <c r="X11" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Y11" s="11">
         <f t="shared" si="5"/>
         <v>0.6875</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="Z11" s="11">
         <f t="shared" si="6"/>
         <v>0.68085106382978722</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA11" s="11">
         <f t="shared" si="7"/>
         <v>0.82352941176470584</v>
       </c>
@@ -1346,11 +1321,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="U3:AA11">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>0.5</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
